--- a/Weekly Planner/Weekly schedule planner.xlsx
+++ b/Weekly Planner/Weekly schedule planner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DCD13A-D89B-428C-8948-2E7A332A5DDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D712953B-0E6D-408B-BBEE-E8E238669EC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
   <si>
     <t>Weekly Schedule Planner</t>
   </si>
@@ -1347,7 +1347,6 @@
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="18" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
@@ -1362,139 +1361,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1523,7 +1389,23 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1531,11 +1413,35 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1543,6 +1449,100 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Border Right" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1753,6 +1753,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -7213,31 +7214,31 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{335D838A-61CA-4535-B799-C8FA419100F3}" name="Table1" displayName="Table1" ref="A1:J24" totalsRowCount="1" headerRowDxfId="19">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{657D9B9F-9709-4F9E-A69E-6A980B7C869E}" name="Catergory" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="9" totalsRowCellStyle="Percent">
-      <totalsRowFormula>SUM(Table1[[#Totals],[Mon - Apr 19th]:[Sun - Apr 25th]])/16</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{657D9B9F-9709-4F9E-A69E-6A980B7C869E}" name="Catergory" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="9">
+      <totalsRowFormula>SUM(Table1[[#Totals],[Mon - Apr 19th]:[Sun - Apr 25th]])/7</totalsRowFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{D4A3FF5C-5A8B-4D44-8009-3097C44B145F}" name="Time Provided" dataDxfId="17" totalsRowDxfId="8"/>
     <tableColumn id="3" xr3:uid="{42D401BF-C18C-4329-8EEA-09422E34AB6E}" name="Time Spend" dataDxfId="16" totalsRowDxfId="7"/>
     <tableColumn id="4" xr3:uid="{3254F6A1-9E73-49D6-B15C-0C47B8CF4358}" name="Mon - Apr 19th" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="6">
-      <totalsRowFormula>SUM(D23)/16</totalsRowFormula>
+      <totalsRowFormula>SUM(D23)/17</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{8E90A1E1-1406-4FD8-8174-71E13CB568A3}" name="Tue - Apr 20th" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="5">
-      <totalsRowFormula>SUM(E23)/16</totalsRowFormula>
+      <totalsRowFormula>SUM(E23)/17</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{A91295AC-F05E-4783-9319-698D8DDA4148}" name="Wed - Apr 21st" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="4">
-      <totalsRowFormula>SUM(F23)/16</totalsRowFormula>
+      <totalsRowFormula>SUM(F23)/17</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{9838E1E5-3657-427E-8F45-059AAB6CEF9E}" name="Thur - Apr 22nd" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="3">
-      <totalsRowFormula>SUM(G23)/16</totalsRowFormula>
+      <totalsRowFormula>SUM(G23)/17</totalsRowFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{3EC1A6D2-6803-4EA4-A3BD-54150D63681E}" name="Fri - Apr 23rd" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="2">
-      <totalsRowFormula>SUM(H23)/16</totalsRowFormula>
+      <totalsRowFormula>SUM(H23)/17</totalsRowFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{E0F3C162-BFC5-416E-A9C2-884519778D18}" name="Sat - Apr 24th" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="1">
-      <totalsRowFormula>SUM(I23)/16</totalsRowFormula>
+      <totalsRowFormula>SUM(I23)/17</totalsRowFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{A7EDFBD9-3A91-4DF4-B4F3-E02574CA6563}" name="Sun - Apr 25th" totalsRowFunction="custom" totalsRowDxfId="0">
-      <totalsRowFormula>SUM(J23)/16</totalsRowFormula>
+      <totalsRowFormula>SUM(J23)/17</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7457,96 +7458,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="F3" s="75"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="63"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7674,45 +7675,45 @@
       <c r="AP2" s="33"/>
     </row>
     <row r="3" spans="1:42" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="115"/>
-      <c r="AK3" s="115"/>
-      <c r="AL3" s="115"/>
-      <c r="AM3" s="115"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
     </row>
     <row r="4" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
@@ -7731,21 +7732,21 @@
       <c r="N4" s="21"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="108">
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="103">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
         <v>44305</v>
       </c>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
@@ -7810,49 +7811,49 @@
     <row r="6" spans="1:42" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="118"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81"/>
       <c r="N6" s="21"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="116" t="s">
+      <c r="P6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="118"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="81"/>
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
-      <c r="AC6" s="116" t="s">
+      <c r="AC6" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AD6" s="117"/>
-      <c r="AE6" s="117"/>
-      <c r="AF6" s="117"/>
-      <c r="AG6" s="117"/>
-      <c r="AH6" s="117"/>
-      <c r="AI6" s="117"/>
-      <c r="AJ6" s="117"/>
-      <c r="AK6" s="117"/>
-      <c r="AL6" s="117"/>
-      <c r="AM6" s="118"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="80"/>
+      <c r="AI6" s="80"/>
+      <c r="AJ6" s="80"/>
+      <c r="AK6" s="80"/>
+      <c r="AL6" s="80"/>
+      <c r="AM6" s="81"/>
       <c r="AN6" s="38"/>
       <c r="AO6" s="39"/>
       <c r="AP6" s="39"/>
@@ -7860,43 +7861,43 @@
     <row r="7" spans="1:42" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="85"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="26"/>
       <c r="O7" s="27"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="110"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="87"/>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="84"/>
-      <c r="AL7" s="84"/>
-      <c r="AM7" s="85"/>
+      <c r="AC7" s="104"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="105"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="105"/>
+      <c r="AM7" s="106"/>
       <c r="AN7" s="25"/>
       <c r="AO7" s="24"/>
       <c r="AP7" s="24"/>
@@ -7904,43 +7905,43 @@
     <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="109"/>
       <c r="N8" s="6"/>
       <c r="O8" s="5"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="97"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="90"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="88"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="108"/>
+      <c r="AJ8" s="108"/>
+      <c r="AK8" s="108"/>
+      <c r="AL8" s="108"/>
+      <c r="AM8" s="109"/>
       <c r="AN8" s="20"/>
       <c r="AO8" s="19"/>
       <c r="AP8" s="19"/>
@@ -7948,43 +7949,43 @@
     <row r="9" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="109"/>
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="97"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="90"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="88"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="108"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="108"/>
+      <c r="AH9" s="108"/>
+      <c r="AI9" s="108"/>
+      <c r="AJ9" s="108"/>
+      <c r="AK9" s="108"/>
+      <c r="AL9" s="108"/>
+      <c r="AM9" s="109"/>
       <c r="AN9" s="20"/>
       <c r="AO9" s="19"/>
       <c r="AP9" s="19"/>
@@ -7992,43 +7993,43 @@
     <row r="10" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="109"/>
       <c r="N10" s="6"/>
       <c r="O10" s="5"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="97"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="90"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="88"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="108"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="108"/>
+      <c r="AI10" s="108"/>
+      <c r="AJ10" s="108"/>
+      <c r="AK10" s="108"/>
+      <c r="AL10" s="108"/>
+      <c r="AM10" s="109"/>
       <c r="AN10" s="20"/>
       <c r="AO10" s="19"/>
       <c r="AP10" s="19"/>
@@ -8036,43 +8037,43 @@
     <row r="11" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="88"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="109"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="97"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="90"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="87"/>
-      <c r="AJ11" s="87"/>
-      <c r="AK11" s="87"/>
-      <c r="AL11" s="87"/>
-      <c r="AM11" s="88"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="108"/>
+      <c r="AE11" s="108"/>
+      <c r="AF11" s="108"/>
+      <c r="AG11" s="108"/>
+      <c r="AH11" s="108"/>
+      <c r="AI11" s="108"/>
+      <c r="AJ11" s="108"/>
+      <c r="AK11" s="108"/>
+      <c r="AL11" s="108"/>
+      <c r="AM11" s="109"/>
       <c r="AN11" s="20"/>
       <c r="AO11" s="19"/>
       <c r="AP11" s="19"/>
@@ -8080,43 +8081,43 @@
     <row r="12" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="120"/>
       <c r="N12" s="6"/>
       <c r="O12" s="5"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="99"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="93"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="90"/>
-      <c r="AK12" s="90"/>
-      <c r="AL12" s="90"/>
-      <c r="AM12" s="91"/>
+      <c r="AC12" s="118"/>
+      <c r="AD12" s="119"/>
+      <c r="AE12" s="119"/>
+      <c r="AF12" s="119"/>
+      <c r="AG12" s="119"/>
+      <c r="AH12" s="119"/>
+      <c r="AI12" s="119"/>
+      <c r="AJ12" s="119"/>
+      <c r="AK12" s="119"/>
+      <c r="AL12" s="119"/>
+      <c r="AM12" s="120"/>
       <c r="AN12" s="20"/>
       <c r="AO12" s="19"/>
       <c r="AP12" s="19"/>
@@ -8212,84 +8213,84 @@
     <row r="15" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="92" t="str">
+      <c r="C15" s="121" t="str">
         <f ca="1">TEXT(StartDate+0,"dd")</f>
         <v>19</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="100" t="str">
+      <c r="D15" s="122"/>
+      <c r="E15" s="113" t="str">
         <f ca="1">(TEXT(StartDate+0,"aaaa"))</f>
         <v>Monday</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="81" t="str">
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="111" t="str">
         <f ca="1">TEXT(StartDate+1,"dd")</f>
         <v>20</v>
       </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="100" t="str">
+      <c r="J15" s="111"/>
+      <c r="K15" s="113" t="str">
         <f ca="1">(TEXT(StartDate+1,"aaaa"))</f>
         <v>Tuesday</v>
       </c>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="81" t="str">
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="111" t="str">
         <f ca="1">TEXT(StartDate+2,"dd")</f>
         <v>21</v>
       </c>
-      <c r="O15" s="81"/>
-      <c r="P15" s="100" t="str">
+      <c r="O15" s="111"/>
+      <c r="P15" s="113" t="str">
         <f ca="1">(TEXT(StartDate+2,"aaaa"))</f>
         <v>Wednesday</v>
       </c>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="81" t="str">
+      <c r="Q15" s="113"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="111" t="str">
         <f ca="1">TEXT(StartDate+3,"dd")</f>
         <v>22</v>
       </c>
-      <c r="T15" s="81"/>
-      <c r="U15" s="100" t="str">
+      <c r="T15" s="111"/>
+      <c r="U15" s="113" t="str">
         <f ca="1">(TEXT(StartDate+3,"aaaa"))</f>
         <v>Thursday</v>
       </c>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="81" t="str">
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="111" t="str">
         <f ca="1">TEXT(StartDate+4,"dd")</f>
         <v>23</v>
       </c>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="100" t="str">
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="113" t="str">
         <f ca="1">(TEXT(StartDate+4,"aaaa"))</f>
         <v>Friday</v>
       </c>
-      <c r="AA15" s="100"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="81" t="str">
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="111" t="str">
         <f ca="1">TEXT(StartDate+5,"dd")</f>
         <v>24</v>
       </c>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="100" t="str">
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="113" t="str">
         <f ca="1">(TEXT(StartDate+5,"aaaa"))</f>
         <v>Saturday</v>
       </c>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="100"/>
-      <c r="AH15" s="81" t="str">
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="111" t="str">
         <f ca="1">TEXT(StartDate+6,"dd")</f>
         <v>25</v>
       </c>
-      <c r="AI15" s="81"/>
-      <c r="AJ15" s="100" t="str">
+      <c r="AI15" s="111"/>
+      <c r="AJ15" s="113" t="str">
         <f ca="1">(TEXT(StartDate+6,"aaaa"))</f>
         <v>Sunday</v>
       </c>
-      <c r="AK15" s="100"/>
-      <c r="AL15" s="100"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
       <c r="AM15" s="31"/>
       <c r="AN15" s="20"/>
       <c r="AO15" s="19"/>
@@ -8298,63 +8299,63 @@
     <row r="16" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="102" t="str">
+      <c r="C16" s="123"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="114" t="str">
         <f ca="1">(TEXT(StartDate+0,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="102" t="str">
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="114" t="str">
         <f ca="1">(TEXT(StartDate+1,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="102" t="str">
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="114" t="str">
         <f ca="1">(TEXT(StartDate+2,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="102" t="str">
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="114" t="str">
         <f ca="1">(TEXT(StartDate+3,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="102" t="str">
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="112"/>
+      <c r="Z16" s="114" t="str">
         <f ca="1">(TEXT(StartDate+4,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="102" t="str">
+      <c r="AA16" s="114"/>
+      <c r="AB16" s="114"/>
+      <c r="AC16" s="112"/>
+      <c r="AD16" s="112"/>
+      <c r="AE16" s="114" t="str">
         <f ca="1">(TEXT(StartDate+5,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AF16" s="102"/>
-      <c r="AG16" s="102"/>
-      <c r="AH16" s="82"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="102" t="str">
+      <c r="AF16" s="114"/>
+      <c r="AG16" s="114"/>
+      <c r="AH16" s="112"/>
+      <c r="AI16" s="112"/>
+      <c r="AJ16" s="114" t="str">
         <f ca="1">(TEXT(StartDate+6,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="102"/>
+      <c r="AK16" s="114"/>
+      <c r="AL16" s="114"/>
       <c r="AM16" s="32"/>
       <c r="AN16" s="20"/>
       <c r="AO16" s="19"/>
@@ -8366,42 +8367,42 @@
       <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
       <c r="S17" s="11"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="97"/>
       <c r="X17" s="11"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="104"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="97"/>
+      <c r="AB17" s="97"/>
       <c r="AC17" s="11"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="104"/>
-      <c r="AF17" s="104"/>
-      <c r="AG17" s="104"/>
+      <c r="AD17" s="97"/>
+      <c r="AE17" s="97"/>
+      <c r="AF17" s="97"/>
+      <c r="AG17" s="97"/>
       <c r="AH17" s="11"/>
-      <c r="AI17" s="104"/>
-      <c r="AJ17" s="104"/>
-      <c r="AK17" s="104"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="126"/>
+      <c r="AI17" s="97"/>
+      <c r="AJ17" s="97"/>
+      <c r="AK17" s="97"/>
+      <c r="AL17" s="97"/>
+      <c r="AM17" s="98"/>
       <c r="AN17" s="20"/>
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
@@ -8412,42 +8413,42 @@
       <c r="C18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="102"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="106"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
       <c r="X18" s="12"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="106"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="99"/>
       <c r="AC18" s="12"/>
-      <c r="AD18" s="106"/>
-      <c r="AE18" s="106"/>
-      <c r="AF18" s="106"/>
-      <c r="AG18" s="106"/>
+      <c r="AD18" s="99"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="99"/>
+      <c r="AG18" s="99"/>
       <c r="AH18" s="12"/>
-      <c r="AI18" s="106"/>
-      <c r="AJ18" s="106"/>
-      <c r="AK18" s="106"/>
-      <c r="AL18" s="106"/>
-      <c r="AM18" s="127"/>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="99"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="100"/>
       <c r="AN18" s="20"/>
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
@@ -8458,42 +8459,42 @@
       <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="107"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="102"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="106"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
       <c r="X19" s="12"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="106"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
       <c r="AC19" s="12"/>
-      <c r="AD19" s="106"/>
-      <c r="AE19" s="106"/>
-      <c r="AF19" s="106"/>
-      <c r="AG19" s="106"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="99"/>
       <c r="AH19" s="12"/>
-      <c r="AI19" s="106"/>
-      <c r="AJ19" s="106"/>
-      <c r="AK19" s="106"/>
-      <c r="AL19" s="106"/>
-      <c r="AM19" s="127"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="99"/>
+      <c r="AK19" s="99"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="100"/>
       <c r="AN19" s="20"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
@@ -8502,42 +8503,42 @@
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="107"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="102"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
       <c r="X20" s="12"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
       <c r="AC20" s="12"/>
-      <c r="AD20" s="106"/>
-      <c r="AE20" s="106"/>
-      <c r="AF20" s="106"/>
-      <c r="AG20" s="106"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="99"/>
       <c r="AH20" s="12"/>
-      <c r="AI20" s="106"/>
-      <c r="AJ20" s="106"/>
-      <c r="AK20" s="106"/>
-      <c r="AL20" s="106"/>
-      <c r="AM20" s="127"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="100"/>
       <c r="AN20" s="20"/>
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
@@ -8546,42 +8547,42 @@
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="107"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="102"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
       <c r="X21" s="12"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="106"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
       <c r="AC21" s="12"/>
-      <c r="AD21" s="106"/>
-      <c r="AE21" s="106"/>
-      <c r="AF21" s="106"/>
-      <c r="AG21" s="106"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="99"/>
+      <c r="AG21" s="99"/>
       <c r="AH21" s="12"/>
-      <c r="AI21" s="106"/>
-      <c r="AJ21" s="106"/>
-      <c r="AK21" s="106"/>
-      <c r="AL21" s="106"/>
-      <c r="AM21" s="127"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="99"/>
+      <c r="AK21" s="99"/>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="100"/>
       <c r="AN21" s="20"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="19"/>
@@ -8590,42 +8591,42 @@
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="99"/>
       <c r="X22" s="12"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="106"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="99"/>
       <c r="AC22" s="12"/>
-      <c r="AD22" s="106"/>
-      <c r="AE22" s="106"/>
-      <c r="AF22" s="106"/>
-      <c r="AG22" s="106"/>
+      <c r="AD22" s="99"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="99"/>
+      <c r="AG22" s="99"/>
       <c r="AH22" s="12"/>
-      <c r="AI22" s="106"/>
-      <c r="AJ22" s="106"/>
-      <c r="AK22" s="106"/>
-      <c r="AL22" s="106"/>
-      <c r="AM22" s="127"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
+      <c r="AK22" s="99"/>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="100"/>
       <c r="AN22" s="20"/>
       <c r="AO22" s="19"/>
       <c r="AP22" s="19"/>
@@ -8634,42 +8635,42 @@
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
       <c r="X23" s="12"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="99"/>
       <c r="AC23" s="12"/>
-      <c r="AD23" s="106"/>
-      <c r="AE23" s="106"/>
-      <c r="AF23" s="106"/>
-      <c r="AG23" s="106"/>
+      <c r="AD23" s="99"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="99"/>
+      <c r="AG23" s="99"/>
       <c r="AH23" s="12"/>
-      <c r="AI23" s="106"/>
-      <c r="AJ23" s="106"/>
-      <c r="AK23" s="106"/>
-      <c r="AL23" s="106"/>
-      <c r="AM23" s="127"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
+      <c r="AK23" s="99"/>
+      <c r="AL23" s="99"/>
+      <c r="AM23" s="100"/>
       <c r="AN23" s="20"/>
       <c r="AO23" s="19"/>
       <c r="AP23" s="19"/>
@@ -8678,42 +8679,42 @@
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
       <c r="X24" s="12"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
       <c r="AC24" s="12"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="106"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99"/>
       <c r="AH24" s="12"/>
-      <c r="AI24" s="106"/>
-      <c r="AJ24" s="106"/>
-      <c r="AK24" s="106"/>
-      <c r="AL24" s="106"/>
-      <c r="AM24" s="127"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="100"/>
       <c r="AN24" s="20"/>
       <c r="AO24" s="19"/>
       <c r="AP24" s="19"/>
@@ -8722,42 +8723,42 @@
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
       <c r="X25" s="12"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
       <c r="AC25" s="12"/>
-      <c r="AD25" s="106"/>
-      <c r="AE25" s="106"/>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="106"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="99"/>
       <c r="AH25" s="12"/>
-      <c r="AI25" s="106"/>
-      <c r="AJ25" s="106"/>
-      <c r="AK25" s="106"/>
-      <c r="AL25" s="106"/>
-      <c r="AM25" s="127"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="99"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="99"/>
+      <c r="AM25" s="100"/>
       <c r="AN25" s="20"/>
       <c r="AO25" s="19"/>
       <c r="AP25" s="19"/>
@@ -8766,42 +8767,42 @@
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
       <c r="X26" s="12"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="99"/>
       <c r="AC26" s="12"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="106"/>
-      <c r="AF26" s="106"/>
-      <c r="AG26" s="106"/>
+      <c r="AD26" s="99"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="99"/>
+      <c r="AG26" s="99"/>
       <c r="AH26" s="12"/>
-      <c r="AI26" s="106"/>
-      <c r="AJ26" s="106"/>
-      <c r="AK26" s="106"/>
-      <c r="AL26" s="106"/>
-      <c r="AM26" s="127"/>
+      <c r="AI26" s="99"/>
+      <c r="AJ26" s="99"/>
+      <c r="AK26" s="99"/>
+      <c r="AL26" s="99"/>
+      <c r="AM26" s="100"/>
       <c r="AN26" s="20"/>
       <c r="AO26" s="19"/>
       <c r="AP26" s="19"/>
@@ -8810,42 +8811,42 @@
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="99"/>
       <c r="X27" s="12"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="99"/>
       <c r="AC27" s="12"/>
-      <c r="AD27" s="106"/>
-      <c r="AE27" s="106"/>
-      <c r="AF27" s="106"/>
-      <c r="AG27" s="106"/>
+      <c r="AD27" s="99"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="99"/>
+      <c r="AG27" s="99"/>
       <c r="AH27" s="12"/>
-      <c r="AI27" s="106"/>
-      <c r="AJ27" s="106"/>
-      <c r="AK27" s="106"/>
-      <c r="AL27" s="106"/>
-      <c r="AM27" s="127"/>
+      <c r="AI27" s="99"/>
+      <c r="AJ27" s="99"/>
+      <c r="AK27" s="99"/>
+      <c r="AL27" s="99"/>
+      <c r="AM27" s="100"/>
       <c r="AN27" s="20"/>
       <c r="AO27" s="19"/>
       <c r="AP27" s="19"/>
@@ -8854,42 +8855,42 @@
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="99"/>
       <c r="X28" s="12"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="106"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="99"/>
       <c r="AC28" s="12"/>
-      <c r="AD28" s="106"/>
-      <c r="AE28" s="106"/>
-      <c r="AF28" s="106"/>
-      <c r="AG28" s="106"/>
+      <c r="AD28" s="99"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="99"/>
+      <c r="AG28" s="99"/>
       <c r="AH28" s="12"/>
-      <c r="AI28" s="106"/>
-      <c r="AJ28" s="106"/>
-      <c r="AK28" s="106"/>
-      <c r="AL28" s="106"/>
-      <c r="AM28" s="127"/>
+      <c r="AI28" s="99"/>
+      <c r="AJ28" s="99"/>
+      <c r="AK28" s="99"/>
+      <c r="AL28" s="99"/>
+      <c r="AM28" s="100"/>
       <c r="AN28" s="20"/>
       <c r="AO28" s="19"/>
       <c r="AP28" s="19"/>
@@ -8898,42 +8899,42 @@
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="106"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="99"/>
+      <c r="W29" s="99"/>
       <c r="X29" s="12"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
+      <c r="Y29" s="99"/>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="99"/>
       <c r="AC29" s="12"/>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="106"/>
-      <c r="AF29" s="106"/>
-      <c r="AG29" s="106"/>
+      <c r="AD29" s="99"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="99"/>
+      <c r="AG29" s="99"/>
       <c r="AH29" s="12"/>
-      <c r="AI29" s="106"/>
-      <c r="AJ29" s="106"/>
-      <c r="AK29" s="106"/>
-      <c r="AL29" s="106"/>
-      <c r="AM29" s="127"/>
+      <c r="AI29" s="99"/>
+      <c r="AJ29" s="99"/>
+      <c r="AK29" s="99"/>
+      <c r="AL29" s="99"/>
+      <c r="AM29" s="100"/>
       <c r="AN29" s="20"/>
       <c r="AO29" s="19"/>
       <c r="AP29" s="19"/>
@@ -8942,42 +8943,42 @@
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="96"/>
       <c r="S30" s="12"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="111"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="96"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="96"/>
       <c r="X30" s="12"/>
-      <c r="Y30" s="111"/>
-      <c r="Z30" s="111"/>
-      <c r="AA30" s="111"/>
-      <c r="AB30" s="111"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="96"/>
+      <c r="AB30" s="96"/>
       <c r="AC30" s="12"/>
-      <c r="AD30" s="111"/>
-      <c r="AE30" s="111"/>
-      <c r="AF30" s="111"/>
-      <c r="AG30" s="111"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="96"/>
+      <c r="AG30" s="96"/>
       <c r="AH30" s="12"/>
-      <c r="AI30" s="111"/>
-      <c r="AJ30" s="111"/>
-      <c r="AK30" s="111"/>
-      <c r="AL30" s="111"/>
-      <c r="AM30" s="113"/>
+      <c r="AI30" s="96"/>
+      <c r="AJ30" s="96"/>
+      <c r="AK30" s="96"/>
+      <c r="AL30" s="96"/>
+      <c r="AM30" s="101"/>
       <c r="AN30" s="20"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="19"/>
@@ -8986,42 +8987,42 @@
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
       <c r="N31" s="13"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
       <c r="X31" s="13"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="112"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="94"/>
       <c r="AC31" s="13"/>
-      <c r="AD31" s="112"/>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="112"/>
-      <c r="AG31" s="112"/>
+      <c r="AD31" s="94"/>
+      <c r="AE31" s="94"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="94"/>
       <c r="AH31" s="13"/>
-      <c r="AI31" s="112"/>
-      <c r="AJ31" s="112"/>
-      <c r="AK31" s="112"/>
-      <c r="AL31" s="112"/>
-      <c r="AM31" s="125"/>
+      <c r="AI31" s="94"/>
+      <c r="AJ31" s="94"/>
+      <c r="AK31" s="94"/>
+      <c r="AL31" s="94"/>
+      <c r="AM31" s="95"/>
       <c r="AN31" s="20"/>
       <c r="AO31" s="19"/>
       <c r="AP31" s="19"/>
@@ -9117,45 +9118,45 @@
     <row r="34" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="119" t="s">
+      <c r="C34" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
-      <c r="Y34" s="120"/>
-      <c r="Z34" s="120"/>
-      <c r="AA34" s="120"/>
-      <c r="AB34" s="120"/>
-      <c r="AC34" s="120"/>
-      <c r="AD34" s="120"/>
-      <c r="AE34" s="120"/>
-      <c r="AF34" s="120"/>
-      <c r="AG34" s="120"/>
-      <c r="AH34" s="120"/>
-      <c r="AI34" s="120"/>
-      <c r="AJ34" s="120"/>
-      <c r="AK34" s="120"/>
-      <c r="AL34" s="120"/>
-      <c r="AM34" s="121"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="83"/>
+      <c r="X34" s="83"/>
+      <c r="Y34" s="83"/>
+      <c r="Z34" s="83"/>
+      <c r="AA34" s="83"/>
+      <c r="AB34" s="83"/>
+      <c r="AC34" s="83"/>
+      <c r="AD34" s="83"/>
+      <c r="AE34" s="83"/>
+      <c r="AF34" s="83"/>
+      <c r="AG34" s="83"/>
+      <c r="AH34" s="83"/>
+      <c r="AI34" s="83"/>
+      <c r="AJ34" s="83"/>
+      <c r="AK34" s="83"/>
+      <c r="AL34" s="83"/>
+      <c r="AM34" s="84"/>
       <c r="AN34" s="20"/>
       <c r="AO34" s="19"/>
       <c r="AP34" s="19"/>
@@ -9163,43 +9164,43 @@
     <row r="35" spans="1:42" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="109"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="109"/>
-      <c r="U35" s="109"/>
-      <c r="V35" s="109"/>
-      <c r="W35" s="109"/>
-      <c r="X35" s="109"/>
-      <c r="Y35" s="109"/>
-      <c r="Z35" s="109"/>
-      <c r="AA35" s="109"/>
-      <c r="AB35" s="109"/>
-      <c r="AC35" s="109"/>
-      <c r="AD35" s="109"/>
-      <c r="AE35" s="109"/>
-      <c r="AF35" s="109"/>
-      <c r="AG35" s="109"/>
-      <c r="AH35" s="109"/>
-      <c r="AI35" s="109"/>
-      <c r="AJ35" s="109"/>
-      <c r="AK35" s="109"/>
-      <c r="AL35" s="109"/>
-      <c r="AM35" s="110"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="86"/>
+      <c r="V35" s="86"/>
+      <c r="W35" s="86"/>
+      <c r="X35" s="86"/>
+      <c r="Y35" s="86"/>
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="86"/>
+      <c r="AB35" s="86"/>
+      <c r="AC35" s="86"/>
+      <c r="AD35" s="86"/>
+      <c r="AE35" s="86"/>
+      <c r="AF35" s="86"/>
+      <c r="AG35" s="86"/>
+      <c r="AH35" s="86"/>
+      <c r="AI35" s="86"/>
+      <c r="AJ35" s="86"/>
+      <c r="AK35" s="86"/>
+      <c r="AL35" s="86"/>
+      <c r="AM35" s="87"/>
       <c r="AN35" s="25"/>
       <c r="AO35" s="24"/>
       <c r="AP35" s="24"/>
@@ -9207,43 +9208,43 @@
     <row r="36" spans="1:42" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="30"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="79"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="79"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="79"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="79"/>
-      <c r="AE36" s="79"/>
-      <c r="AF36" s="79"/>
-      <c r="AG36" s="79"/>
-      <c r="AH36" s="79"/>
-      <c r="AI36" s="79"/>
-      <c r="AJ36" s="79"/>
-      <c r="AK36" s="79"/>
-      <c r="AL36" s="79"/>
-      <c r="AM36" s="80"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="116"/>
+      <c r="R36" s="116"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="116"/>
+      <c r="U36" s="116"/>
+      <c r="V36" s="116"/>
+      <c r="W36" s="116"/>
+      <c r="X36" s="116"/>
+      <c r="Y36" s="116"/>
+      <c r="Z36" s="116"/>
+      <c r="AA36" s="116"/>
+      <c r="AB36" s="116"/>
+      <c r="AC36" s="116"/>
+      <c r="AD36" s="116"/>
+      <c r="AE36" s="116"/>
+      <c r="AF36" s="116"/>
+      <c r="AG36" s="116"/>
+      <c r="AH36" s="116"/>
+      <c r="AI36" s="116"/>
+      <c r="AJ36" s="116"/>
+      <c r="AK36" s="116"/>
+      <c r="AL36" s="116"/>
+      <c r="AM36" s="117"/>
       <c r="AN36" s="25"/>
       <c r="AO36" s="24"/>
       <c r="AP36" s="24"/>
@@ -9251,43 +9252,43 @@
     <row r="37" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="96"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="96"/>
-      <c r="V37" s="96"/>
-      <c r="W37" s="96"/>
-      <c r="X37" s="96"/>
-      <c r="Y37" s="96"/>
-      <c r="Z37" s="96"/>
-      <c r="AA37" s="96"/>
-      <c r="AB37" s="96"/>
-      <c r="AC37" s="96"/>
-      <c r="AD37" s="96"/>
-      <c r="AE37" s="96"/>
-      <c r="AF37" s="96"/>
-      <c r="AG37" s="96"/>
-      <c r="AH37" s="96"/>
-      <c r="AI37" s="96"/>
-      <c r="AJ37" s="96"/>
-      <c r="AK37" s="96"/>
-      <c r="AL37" s="96"/>
-      <c r="AM37" s="97"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="89"/>
+      <c r="S37" s="89"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="89"/>
+      <c r="V37" s="89"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="89"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="89"/>
+      <c r="AA37" s="89"/>
+      <c r="AB37" s="89"/>
+      <c r="AC37" s="89"/>
+      <c r="AD37" s="89"/>
+      <c r="AE37" s="89"/>
+      <c r="AF37" s="89"/>
+      <c r="AG37" s="89"/>
+      <c r="AH37" s="89"/>
+      <c r="AI37" s="89"/>
+      <c r="AJ37" s="89"/>
+      <c r="AK37" s="89"/>
+      <c r="AL37" s="89"/>
+      <c r="AM37" s="90"/>
       <c r="AN37" s="20"/>
       <c r="AO37" s="19"/>
       <c r="AP37" s="19"/>
@@ -9295,43 +9296,43 @@
     <row r="38" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="98"/>
-      <c r="O38" s="98"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="98"/>
-      <c r="R38" s="98"/>
-      <c r="S38" s="98"/>
-      <c r="T38" s="98"/>
-      <c r="U38" s="98"/>
-      <c r="V38" s="98"/>
-      <c r="W38" s="98"/>
-      <c r="X38" s="98"/>
-      <c r="Y38" s="98"/>
-      <c r="Z38" s="98"/>
-      <c r="AA38" s="98"/>
-      <c r="AB38" s="98"/>
-      <c r="AC38" s="98"/>
-      <c r="AD38" s="98"/>
-      <c r="AE38" s="98"/>
-      <c r="AF38" s="98"/>
-      <c r="AG38" s="98"/>
-      <c r="AH38" s="98"/>
-      <c r="AI38" s="98"/>
-      <c r="AJ38" s="98"/>
-      <c r="AK38" s="98"/>
-      <c r="AL38" s="98"/>
-      <c r="AM38" s="99"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="92"/>
+      <c r="V38" s="92"/>
+      <c r="W38" s="92"/>
+      <c r="X38" s="92"/>
+      <c r="Y38" s="92"/>
+      <c r="Z38" s="92"/>
+      <c r="AA38" s="92"/>
+      <c r="AB38" s="92"/>
+      <c r="AC38" s="92"/>
+      <c r="AD38" s="92"/>
+      <c r="AE38" s="92"/>
+      <c r="AF38" s="92"/>
+      <c r="AG38" s="92"/>
+      <c r="AH38" s="92"/>
+      <c r="AI38" s="92"/>
+      <c r="AJ38" s="92"/>
+      <c r="AK38" s="92"/>
+      <c r="AL38" s="92"/>
+      <c r="AM38" s="93"/>
       <c r="AN38" s="20"/>
       <c r="AO38" s="19"/>
       <c r="AP38" s="19"/>
@@ -9469,6 +9470,137 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="155">
+    <mergeCell ref="C36:AM36"/>
+    <mergeCell ref="AH15:AI16"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="AC11:AM11"/>
+    <mergeCell ref="AC12:AM12"/>
+    <mergeCell ref="Q11:Z11"/>
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="X15:Y16"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC15:AD16"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="AC7:AM7"/>
+    <mergeCell ref="AC8:AM8"/>
+    <mergeCell ref="AC9:AM9"/>
+    <mergeCell ref="AC10:AM10"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="Q7:Z7"/>
+    <mergeCell ref="Q8:Z8"/>
+    <mergeCell ref="Q9:Z9"/>
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="AI30:AM30"/>
+    <mergeCell ref="Y29:AB29"/>
+    <mergeCell ref="Y30:AB30"/>
+    <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="AD21:AG21"/>
     <mergeCell ref="C3:AM3"/>
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="P6:Z6"/>
@@ -9493,137 +9625,6 @@
     <mergeCell ref="AI27:AM27"/>
     <mergeCell ref="AI28:AM28"/>
     <mergeCell ref="AI29:AM29"/>
-    <mergeCell ref="AI30:AM30"/>
-    <mergeCell ref="Y29:AB29"/>
-    <mergeCell ref="Y30:AB30"/>
-    <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="Q7:Z7"/>
-    <mergeCell ref="Q8:Z8"/>
-    <mergeCell ref="Q9:Z9"/>
-    <mergeCell ref="Q10:Z10"/>
-    <mergeCell ref="AC7:AM7"/>
-    <mergeCell ref="AC8:AM8"/>
-    <mergeCell ref="AC9:AM9"/>
-    <mergeCell ref="AC10:AM10"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="C36:AM36"/>
-    <mergeCell ref="AH15:AI16"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="AC11:AM11"/>
-    <mergeCell ref="AC12:AM12"/>
-    <mergeCell ref="Q11:Z11"/>
-    <mergeCell ref="Q12:Z12"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="X15:Y16"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AC15:AD16"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="D17:H17"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C12 C15 E15:E16 O13:AM13 C1:AM1 C17:D31 J17:J31 C35:C38 C43:AM1048576 C4:AM5 O6:O12 AA6:AB12">
     <cfRule type="cellIs" dxfId="92" priority="99" operator="equal">
@@ -10008,7 +10009,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10023,7 +10024,7 @@
     <col min="8" max="8" width="20.5546875" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" style="77" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" style="76" customWidth="1"/>
     <col min="12" max="12" width="15.21875" customWidth="1"/>
     <col min="13" max="13" width="13.88671875" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" customWidth="1"/>
@@ -10043,7 +10044,7 @@
       <c r="C1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="75" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="51" t="s">
@@ -10171,7 +10172,9 @@
       <c r="F4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="57"/>
@@ -10196,7 +10199,9 @@
       <c r="F5" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="57"/>
+      <c r="G5" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
       <c r="J5" s="57"/>
@@ -10221,7 +10226,9 @@
       <c r="F6" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="57"/>
+      <c r="G6" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
       <c r="J6" s="57"/>
@@ -10246,7 +10253,9 @@
       <c r="F7" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="57"/>
+      <c r="G7" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="H7" s="57"/>
       <c r="I7" s="57"/>
       <c r="J7" s="57"/>
@@ -10271,7 +10280,9 @@
       <c r="F8" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="57"/>
+      <c r="G8" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="H8" s="57"/>
       <c r="I8" s="57"/>
       <c r="J8" s="57"/>
@@ -10296,7 +10307,9 @@
       <c r="F9" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="57"/>
+      <c r="G9" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="H9" s="57"/>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
@@ -10321,7 +10334,9 @@
       <c r="F10" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="57"/>
+      <c r="G10" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
       <c r="J10" s="57"/>
@@ -10361,7 +10376,9 @@
       <c r="F12" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="57"/>
+      <c r="G12" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
       <c r="J12" s="57"/>
@@ -10386,7 +10403,9 @@
       <c r="F13" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="57"/>
+      <c r="G13" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="H13" s="57"/>
       <c r="I13" s="57"/>
       <c r="J13" s="57"/>
@@ -10411,7 +10430,9 @@
       <c r="F14" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="57"/>
+      <c r="G14" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="H14" s="57"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57"/>
@@ -10448,8 +10469,12 @@
       <c r="E16" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="F16" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
@@ -10471,8 +10496,12 @@
       <c r="E17" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
+      <c r="F17" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="H17" s="57"/>
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
@@ -10494,8 +10523,12 @@
       <c r="E18" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
+      <c r="F18" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
@@ -10517,8 +10550,12 @@
       <c r="E19" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
+      <c r="F19" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
@@ -10540,8 +10577,12 @@
       <c r="E20" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
+      <c r="F20" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
       <c r="J20" s="57"/>
@@ -10563,8 +10604,12 @@
       <c r="E21" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
+      <c r="F21" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="H21" s="57"/>
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>
@@ -10586,8 +10631,12 @@
       <c r="E22" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
+      <c r="F22" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
@@ -10609,11 +10658,11 @@
       </c>
       <c r="F23" s="57">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G23" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H23" s="57">
         <f t="shared" si="0"/>
@@ -10630,38 +10679,38 @@
       <c r="K23"/>
     </row>
     <row r="24" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="65">
-        <f>SUM(Table1[[#Totals],[Mon - Apr 19th]:[Sun - Apr 25th]])/16</f>
-        <v>0.1328125</v>
+      <c r="A24" s="127">
+        <f>SUM(Table1[[#Totals],[Mon - Apr 19th]:[Sun - Apr 25th]])/7</f>
+        <v>0.42857142857142849</v>
       </c>
       <c r="B24" s="62"/>
       <c r="C24" s="61"/>
       <c r="D24" s="64">
-        <f>SUM(D23)/16</f>
-        <v>0.75</v>
+        <f>SUM(D23)/17</f>
+        <v>0.70588235294117652</v>
       </c>
       <c r="E24" s="64">
-        <f t="shared" ref="E24:J24" si="1">SUM(E23)/16</f>
-        <v>0.875</v>
+        <f>SUM(E23)/17</f>
+        <v>0.82352941176470584</v>
       </c>
       <c r="F24" s="64">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>SUM(F23)/17</f>
+        <v>0.82352941176470584</v>
       </c>
       <c r="G24" s="64">
-        <f t="shared" si="1"/>
+        <f>SUM(G23)/17</f>
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="H24" s="64">
+        <f>SUM(H23)/17</f>
         <v>0</v>
       </c>
-      <c r="H24" s="64">
-        <f t="shared" si="1"/>
+      <c r="I24" s="64">
+        <f>SUM(I23)/17</f>
         <v>0</v>
       </c>
-      <c r="I24" s="64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="J24" s="64">
-        <f t="shared" si="1"/>
+        <f>SUM(J23)/17</f>
         <v>0</v>
       </c>
       <c r="K24"/>
@@ -10679,7 +10728,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 A1 A37:A1048576" xr:uid="{1713A267-0C0A-438A-9CE7-A2F77CB3F8D6}">
       <formula1>"Sleep, Excel, Tableau"</formula1>
     </dataValidation>
@@ -10702,6 +10751,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="46e0ad8bcb937777a496f4378509b82b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3afd91b9dddacb5807afd727ccca0e2e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -10922,15 +10980,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10941,6 +10990,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C3BEF7D-0560-4D92-8503-510D68BBABDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10959,14 +11016,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61C0559-A3A8-404B-B3C9-59977EEF143B}">
   <ds:schemaRefs>

--- a/Weekly Planner/Weekly schedule planner.xlsx
+++ b/Weekly Planner/Weekly schedule planner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D712953B-0E6D-408B-BBEE-E8E238669EC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307839D3-BD96-43D1-A8CE-6DA39A71FFCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="70">
   <si>
     <t>Weekly Schedule Planner</t>
   </si>
@@ -1361,6 +1361,140 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1389,23 +1523,7 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1413,35 +1531,11 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1449,100 +1543,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Border Right" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7675,45 +7675,45 @@
       <c r="AP2" s="33"/>
     </row>
     <row r="3" spans="1:42" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="115"/>
+      <c r="AJ3" s="115"/>
+      <c r="AK3" s="115"/>
+      <c r="AL3" s="115"/>
+      <c r="AM3" s="115"/>
     </row>
     <row r="4" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
@@ -7732,21 +7732,21 @@
       <c r="N4" s="21"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="103">
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="108">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
         <v>44305</v>
       </c>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
@@ -7811,49 +7811,49 @@
     <row r="6" spans="1:42" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="118"/>
       <c r="N6" s="21"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="79" t="s">
+      <c r="P6" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="81"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="118"/>
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
-      <c r="AC6" s="79" t="s">
+      <c r="AC6" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="80"/>
-      <c r="AI6" s="80"/>
-      <c r="AJ6" s="80"/>
-      <c r="AK6" s="80"/>
-      <c r="AL6" s="80"/>
-      <c r="AM6" s="81"/>
+      <c r="AD6" s="117"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="117"/>
+      <c r="AG6" s="117"/>
+      <c r="AH6" s="117"/>
+      <c r="AI6" s="117"/>
+      <c r="AJ6" s="117"/>
+      <c r="AK6" s="117"/>
+      <c r="AL6" s="117"/>
+      <c r="AM6" s="118"/>
       <c r="AN6" s="38"/>
       <c r="AO6" s="39"/>
       <c r="AP6" s="39"/>
@@ -7861,43 +7861,43 @@
     <row r="7" spans="1:42" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="106"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="85"/>
       <c r="N7" s="26"/>
       <c r="O7" s="27"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="87"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="110"/>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
-      <c r="AC7" s="104"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="106"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
+      <c r="AG7" s="84"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="84"/>
+      <c r="AK7" s="84"/>
+      <c r="AL7" s="84"/>
+      <c r="AM7" s="85"/>
       <c r="AN7" s="25"/>
       <c r="AO7" s="24"/>
       <c r="AP7" s="24"/>
@@ -7905,43 +7905,43 @@
     <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="109"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="6"/>
       <c r="O8" s="5"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="90"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="97"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="108"/>
-      <c r="AH8" s="108"/>
-      <c r="AI8" s="108"/>
-      <c r="AJ8" s="108"/>
-      <c r="AK8" s="108"/>
-      <c r="AL8" s="108"/>
-      <c r="AM8" s="109"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="88"/>
       <c r="AN8" s="20"/>
       <c r="AO8" s="19"/>
       <c r="AP8" s="19"/>
@@ -7949,43 +7949,43 @@
     <row r="9" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="109"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="90"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="97"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="108"/>
-      <c r="AJ9" s="108"/>
-      <c r="AK9" s="108"/>
-      <c r="AL9" s="108"/>
-      <c r="AM9" s="109"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="88"/>
       <c r="AN9" s="20"/>
       <c r="AO9" s="19"/>
       <c r="AP9" s="19"/>
@@ -7993,43 +7993,43 @@
     <row r="10" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="109"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
       <c r="N10" s="6"/>
       <c r="O10" s="5"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="90"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="97"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="107"/>
-      <c r="AD10" s="108"/>
-      <c r="AE10" s="108"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="108"/>
-      <c r="AI10" s="108"/>
-      <c r="AJ10" s="108"/>
-      <c r="AK10" s="108"/>
-      <c r="AL10" s="108"/>
-      <c r="AM10" s="109"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="88"/>
       <c r="AN10" s="20"/>
       <c r="AO10" s="19"/>
       <c r="AP10" s="19"/>
@@ -8037,43 +8037,43 @@
     <row r="11" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="109"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="88"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="90"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="97"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="108"/>
-      <c r="AE11" s="108"/>
-      <c r="AF11" s="108"/>
-      <c r="AG11" s="108"/>
-      <c r="AH11" s="108"/>
-      <c r="AI11" s="108"/>
-      <c r="AJ11" s="108"/>
-      <c r="AK11" s="108"/>
-      <c r="AL11" s="108"/>
-      <c r="AM11" s="109"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="87"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="87"/>
+      <c r="AM11" s="88"/>
       <c r="AN11" s="20"/>
       <c r="AO11" s="19"/>
       <c r="AP11" s="19"/>
@@ -8081,43 +8081,43 @@
     <row r="12" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="120"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
       <c r="N12" s="6"/>
       <c r="O12" s="5"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="93"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="99"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="118"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="119"/>
-      <c r="AF12" s="119"/>
-      <c r="AG12" s="119"/>
-      <c r="AH12" s="119"/>
-      <c r="AI12" s="119"/>
-      <c r="AJ12" s="119"/>
-      <c r="AK12" s="119"/>
-      <c r="AL12" s="119"/>
-      <c r="AM12" s="120"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="90"/>
+      <c r="AL12" s="90"/>
+      <c r="AM12" s="91"/>
       <c r="AN12" s="20"/>
       <c r="AO12" s="19"/>
       <c r="AP12" s="19"/>
@@ -8213,84 +8213,84 @@
     <row r="15" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="121" t="str">
+      <c r="C15" s="92" t="str">
         <f ca="1">TEXT(StartDate+0,"dd")</f>
         <v>19</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="113" t="str">
+      <c r="D15" s="93"/>
+      <c r="E15" s="100" t="str">
         <f ca="1">(TEXT(StartDate+0,"aaaa"))</f>
         <v>Monday</v>
       </c>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="111" t="str">
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="81" t="str">
         <f ca="1">TEXT(StartDate+1,"dd")</f>
         <v>20</v>
       </c>
-      <c r="J15" s="111"/>
-      <c r="K15" s="113" t="str">
+      <c r="J15" s="81"/>
+      <c r="K15" s="100" t="str">
         <f ca="1">(TEXT(StartDate+1,"aaaa"))</f>
         <v>Tuesday</v>
       </c>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="111" t="str">
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="81" t="str">
         <f ca="1">TEXT(StartDate+2,"dd")</f>
         <v>21</v>
       </c>
-      <c r="O15" s="111"/>
-      <c r="P15" s="113" t="str">
+      <c r="O15" s="81"/>
+      <c r="P15" s="100" t="str">
         <f ca="1">(TEXT(StartDate+2,"aaaa"))</f>
         <v>Wednesday</v>
       </c>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="111" t="str">
+      <c r="Q15" s="100"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="81" t="str">
         <f ca="1">TEXT(StartDate+3,"dd")</f>
         <v>22</v>
       </c>
-      <c r="T15" s="111"/>
-      <c r="U15" s="113" t="str">
+      <c r="T15" s="81"/>
+      <c r="U15" s="100" t="str">
         <f ca="1">(TEXT(StartDate+3,"aaaa"))</f>
         <v>Thursday</v>
       </c>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="111" t="str">
+      <c r="V15" s="100"/>
+      <c r="W15" s="100"/>
+      <c r="X15" s="81" t="str">
         <f ca="1">TEXT(StartDate+4,"dd")</f>
         <v>23</v>
       </c>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="113" t="str">
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="100" t="str">
         <f ca="1">(TEXT(StartDate+4,"aaaa"))</f>
         <v>Friday</v>
       </c>
-      <c r="AA15" s="113"/>
-      <c r="AB15" s="113"/>
-      <c r="AC15" s="111" t="str">
+      <c r="AA15" s="100"/>
+      <c r="AB15" s="100"/>
+      <c r="AC15" s="81" t="str">
         <f ca="1">TEXT(StartDate+5,"dd")</f>
         <v>24</v>
       </c>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="113" t="str">
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="100" t="str">
         <f ca="1">(TEXT(StartDate+5,"aaaa"))</f>
         <v>Saturday</v>
       </c>
-      <c r="AF15" s="113"/>
-      <c r="AG15" s="113"/>
-      <c r="AH15" s="111" t="str">
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="81" t="str">
         <f ca="1">TEXT(StartDate+6,"dd")</f>
         <v>25</v>
       </c>
-      <c r="AI15" s="111"/>
-      <c r="AJ15" s="113" t="str">
+      <c r="AI15" s="81"/>
+      <c r="AJ15" s="100" t="str">
         <f ca="1">(TEXT(StartDate+6,"aaaa"))</f>
         <v>Sunday</v>
       </c>
-      <c r="AK15" s="113"/>
-      <c r="AL15" s="113"/>
+      <c r="AK15" s="100"/>
+      <c r="AL15" s="100"/>
       <c r="AM15" s="31"/>
       <c r="AN15" s="20"/>
       <c r="AO15" s="19"/>
@@ -8299,63 +8299,63 @@
     <row r="16" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="114" t="str">
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="102" t="str">
         <f ca="1">(TEXT(StartDate+0,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="114" t="str">
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="102" t="str">
         <f ca="1">(TEXT(StartDate+1,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="114" t="str">
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="102" t="str">
         <f ca="1">(TEXT(StartDate+2,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="114"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="112"/>
-      <c r="U16" s="114" t="str">
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="102" t="str">
         <f ca="1">(TEXT(StartDate+3,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="V16" s="114"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="112"/>
-      <c r="Y16" s="112"/>
-      <c r="Z16" s="114" t="str">
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="102" t="str">
         <f ca="1">(TEXT(StartDate+4,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AA16" s="114"/>
-      <c r="AB16" s="114"/>
-      <c r="AC16" s="112"/>
-      <c r="AD16" s="112"/>
-      <c r="AE16" s="114" t="str">
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="102" t="str">
         <f ca="1">(TEXT(StartDate+5,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AF16" s="114"/>
-      <c r="AG16" s="114"/>
-      <c r="AH16" s="112"/>
-      <c r="AI16" s="112"/>
-      <c r="AJ16" s="114" t="str">
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="102"/>
+      <c r="AH16" s="82"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="102" t="str">
         <f ca="1">(TEXT(StartDate+6,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AK16" s="114"/>
-      <c r="AL16" s="114"/>
+      <c r="AK16" s="102"/>
+      <c r="AL16" s="102"/>
       <c r="AM16" s="32"/>
       <c r="AN16" s="20"/>
       <c r="AO16" s="19"/>
@@ -8367,42 +8367,42 @@
       <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
       <c r="S17" s="11"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
       <c r="X17" s="11"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="97"/>
-      <c r="AB17" s="97"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
       <c r="AC17" s="11"/>
-      <c r="AD17" s="97"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="97"/>
-      <c r="AG17" s="97"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="104"/>
       <c r="AH17" s="11"/>
-      <c r="AI17" s="97"/>
-      <c r="AJ17" s="97"/>
-      <c r="AK17" s="97"/>
-      <c r="AL17" s="97"/>
-      <c r="AM17" s="98"/>
+      <c r="AI17" s="104"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="104"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="126"/>
       <c r="AN17" s="20"/>
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
@@ -8413,42 +8413,42 @@
       <c r="C18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="102"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
       <c r="X18" s="12"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="106"/>
       <c r="AC18" s="12"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="99"/>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="106"/>
       <c r="AH18" s="12"/>
-      <c r="AI18" s="99"/>
-      <c r="AJ18" s="99"/>
-      <c r="AK18" s="99"/>
-      <c r="AL18" s="99"/>
-      <c r="AM18" s="100"/>
+      <c r="AI18" s="106"/>
+      <c r="AJ18" s="106"/>
+      <c r="AK18" s="106"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="127"/>
       <c r="AN18" s="20"/>
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
@@ -8459,42 +8459,42 @@
       <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="102"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="107"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
       <c r="X19" s="12"/>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="106"/>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="106"/>
       <c r="AC19" s="12"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="99"/>
+      <c r="AD19" s="106"/>
+      <c r="AE19" s="106"/>
+      <c r="AF19" s="106"/>
+      <c r="AG19" s="106"/>
       <c r="AH19" s="12"/>
-      <c r="AI19" s="99"/>
-      <c r="AJ19" s="99"/>
-      <c r="AK19" s="99"/>
-      <c r="AL19" s="99"/>
-      <c r="AM19" s="100"/>
+      <c r="AI19" s="106"/>
+      <c r="AJ19" s="106"/>
+      <c r="AK19" s="106"/>
+      <c r="AL19" s="106"/>
+      <c r="AM19" s="127"/>
       <c r="AN19" s="20"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
@@ -8503,42 +8503,42 @@
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="102"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="106"/>
       <c r="X20" s="12"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="106"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="106"/>
       <c r="AC20" s="12"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="99"/>
+      <c r="AD20" s="106"/>
+      <c r="AE20" s="106"/>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="106"/>
       <c r="AH20" s="12"/>
-      <c r="AI20" s="99"/>
-      <c r="AJ20" s="99"/>
-      <c r="AK20" s="99"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="100"/>
+      <c r="AI20" s="106"/>
+      <c r="AJ20" s="106"/>
+      <c r="AK20" s="106"/>
+      <c r="AL20" s="106"/>
+      <c r="AM20" s="127"/>
       <c r="AN20" s="20"/>
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
@@ -8547,42 +8547,42 @@
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="102"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="99"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="99"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
       <c r="X21" s="12"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="106"/>
       <c r="AC21" s="12"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="99"/>
+      <c r="AD21" s="106"/>
+      <c r="AE21" s="106"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="106"/>
       <c r="AH21" s="12"/>
-      <c r="AI21" s="99"/>
-      <c r="AJ21" s="99"/>
-      <c r="AK21" s="99"/>
-      <c r="AL21" s="99"/>
-      <c r="AM21" s="100"/>
+      <c r="AI21" s="106"/>
+      <c r="AJ21" s="106"/>
+      <c r="AK21" s="106"/>
+      <c r="AL21" s="106"/>
+      <c r="AM21" s="127"/>
       <c r="AN21" s="20"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="19"/>
@@ -8591,42 +8591,42 @@
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
       <c r="X22" s="12"/>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="99"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="106"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="106"/>
       <c r="AC22" s="12"/>
-      <c r="AD22" s="99"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="99"/>
+      <c r="AD22" s="106"/>
+      <c r="AE22" s="106"/>
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="106"/>
       <c r="AH22" s="12"/>
-      <c r="AI22" s="99"/>
-      <c r="AJ22" s="99"/>
-      <c r="AK22" s="99"/>
-      <c r="AL22" s="99"/>
-      <c r="AM22" s="100"/>
+      <c r="AI22" s="106"/>
+      <c r="AJ22" s="106"/>
+      <c r="AK22" s="106"/>
+      <c r="AL22" s="106"/>
+      <c r="AM22" s="127"/>
       <c r="AN22" s="20"/>
       <c r="AO22" s="19"/>
       <c r="AP22" s="19"/>
@@ -8635,42 +8635,42 @@
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
       <c r="X23" s="12"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="99"/>
+      <c r="Y23" s="106"/>
+      <c r="Z23" s="106"/>
+      <c r="AA23" s="106"/>
+      <c r="AB23" s="106"/>
       <c r="AC23" s="12"/>
-      <c r="AD23" s="99"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="99"/>
+      <c r="AD23" s="106"/>
+      <c r="AE23" s="106"/>
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="106"/>
       <c r="AH23" s="12"/>
-      <c r="AI23" s="99"/>
-      <c r="AJ23" s="99"/>
-      <c r="AK23" s="99"/>
-      <c r="AL23" s="99"/>
-      <c r="AM23" s="100"/>
+      <c r="AI23" s="106"/>
+      <c r="AJ23" s="106"/>
+      <c r="AK23" s="106"/>
+      <c r="AL23" s="106"/>
+      <c r="AM23" s="127"/>
       <c r="AN23" s="20"/>
       <c r="AO23" s="19"/>
       <c r="AP23" s="19"/>
@@ -8679,42 +8679,42 @@
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="99"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="99"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
       <c r="X24" s="12"/>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
       <c r="AC24" s="12"/>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="99"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="106"/>
       <c r="AH24" s="12"/>
-      <c r="AI24" s="99"/>
-      <c r="AJ24" s="99"/>
-      <c r="AK24" s="99"/>
-      <c r="AL24" s="99"/>
-      <c r="AM24" s="100"/>
+      <c r="AI24" s="106"/>
+      <c r="AJ24" s="106"/>
+      <c r="AK24" s="106"/>
+      <c r="AL24" s="106"/>
+      <c r="AM24" s="127"/>
       <c r="AN24" s="20"/>
       <c r="AO24" s="19"/>
       <c r="AP24" s="19"/>
@@ -8723,42 +8723,42 @@
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="99"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
+      <c r="T25" s="106"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="106"/>
       <c r="X25" s="12"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="99"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="106"/>
       <c r="AC25" s="12"/>
-      <c r="AD25" s="99"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="99"/>
-      <c r="AG25" s="99"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="106"/>
       <c r="AH25" s="12"/>
-      <c r="AI25" s="99"/>
-      <c r="AJ25" s="99"/>
-      <c r="AK25" s="99"/>
-      <c r="AL25" s="99"/>
-      <c r="AM25" s="100"/>
+      <c r="AI25" s="106"/>
+      <c r="AJ25" s="106"/>
+      <c r="AK25" s="106"/>
+      <c r="AL25" s="106"/>
+      <c r="AM25" s="127"/>
       <c r="AN25" s="20"/>
       <c r="AO25" s="19"/>
       <c r="AP25" s="19"/>
@@ -8767,42 +8767,42 @@
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="106"/>
       <c r="X26" s="12"/>
-      <c r="Y26" s="99"/>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="99"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="106"/>
+      <c r="AB26" s="106"/>
       <c r="AC26" s="12"/>
-      <c r="AD26" s="99"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="99"/>
-      <c r="AG26" s="99"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="106"/>
       <c r="AH26" s="12"/>
-      <c r="AI26" s="99"/>
-      <c r="AJ26" s="99"/>
-      <c r="AK26" s="99"/>
-      <c r="AL26" s="99"/>
-      <c r="AM26" s="100"/>
+      <c r="AI26" s="106"/>
+      <c r="AJ26" s="106"/>
+      <c r="AK26" s="106"/>
+      <c r="AL26" s="106"/>
+      <c r="AM26" s="127"/>
       <c r="AN26" s="20"/>
       <c r="AO26" s="19"/>
       <c r="AP26" s="19"/>
@@ -8811,42 +8811,42 @@
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="99"/>
-      <c r="U27" s="99"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="99"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
       <c r="X27" s="12"/>
-      <c r="Y27" s="99"/>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="99"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106"/>
+      <c r="AB27" s="106"/>
       <c r="AC27" s="12"/>
-      <c r="AD27" s="99"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="99"/>
+      <c r="AD27" s="106"/>
+      <c r="AE27" s="106"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="106"/>
       <c r="AH27" s="12"/>
-      <c r="AI27" s="99"/>
-      <c r="AJ27" s="99"/>
-      <c r="AK27" s="99"/>
-      <c r="AL27" s="99"/>
-      <c r="AM27" s="100"/>
+      <c r="AI27" s="106"/>
+      <c r="AJ27" s="106"/>
+      <c r="AK27" s="106"/>
+      <c r="AL27" s="106"/>
+      <c r="AM27" s="127"/>
       <c r="AN27" s="20"/>
       <c r="AO27" s="19"/>
       <c r="AP27" s="19"/>
@@ -8855,42 +8855,42 @@
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="99"/>
-      <c r="U28" s="99"/>
-      <c r="V28" s="99"/>
-      <c r="W28" s="99"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
       <c r="X28" s="12"/>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="99"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="99"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="106"/>
+      <c r="AB28" s="106"/>
       <c r="AC28" s="12"/>
-      <c r="AD28" s="99"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="99"/>
-      <c r="AG28" s="99"/>
+      <c r="AD28" s="106"/>
+      <c r="AE28" s="106"/>
+      <c r="AF28" s="106"/>
+      <c r="AG28" s="106"/>
       <c r="AH28" s="12"/>
-      <c r="AI28" s="99"/>
-      <c r="AJ28" s="99"/>
-      <c r="AK28" s="99"/>
-      <c r="AL28" s="99"/>
-      <c r="AM28" s="100"/>
+      <c r="AI28" s="106"/>
+      <c r="AJ28" s="106"/>
+      <c r="AK28" s="106"/>
+      <c r="AL28" s="106"/>
+      <c r="AM28" s="127"/>
       <c r="AN28" s="20"/>
       <c r="AO28" s="19"/>
       <c r="AP28" s="19"/>
@@ -8899,42 +8899,42 @@
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="99"/>
-      <c r="U29" s="99"/>
-      <c r="V29" s="99"/>
-      <c r="W29" s="99"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
       <c r="X29" s="12"/>
-      <c r="Y29" s="99"/>
-      <c r="Z29" s="99"/>
-      <c r="AA29" s="99"/>
-      <c r="AB29" s="99"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
       <c r="AC29" s="12"/>
-      <c r="AD29" s="99"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="99"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="106"/>
       <c r="AH29" s="12"/>
-      <c r="AI29" s="99"/>
-      <c r="AJ29" s="99"/>
-      <c r="AK29" s="99"/>
-      <c r="AL29" s="99"/>
-      <c r="AM29" s="100"/>
+      <c r="AI29" s="106"/>
+      <c r="AJ29" s="106"/>
+      <c r="AK29" s="106"/>
+      <c r="AL29" s="106"/>
+      <c r="AM29" s="127"/>
       <c r="AN29" s="20"/>
       <c r="AO29" s="19"/>
       <c r="AP29" s="19"/>
@@ -8943,42 +8943,42 @@
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
       <c r="S30" s="12"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
       <c r="X30" s="12"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="111"/>
+      <c r="AB30" s="111"/>
       <c r="AC30" s="12"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="96"/>
-      <c r="AG30" s="96"/>
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="111"/>
+      <c r="AF30" s="111"/>
+      <c r="AG30" s="111"/>
       <c r="AH30" s="12"/>
-      <c r="AI30" s="96"/>
-      <c r="AJ30" s="96"/>
-      <c r="AK30" s="96"/>
-      <c r="AL30" s="96"/>
-      <c r="AM30" s="101"/>
+      <c r="AI30" s="111"/>
+      <c r="AJ30" s="111"/>
+      <c r="AK30" s="111"/>
+      <c r="AL30" s="111"/>
+      <c r="AM30" s="113"/>
       <c r="AN30" s="20"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="19"/>
@@ -8987,42 +8987,42 @@
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
       <c r="N31" s="13"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="112"/>
       <c r="X31" s="13"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="94"/>
+      <c r="Y31" s="112"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="112"/>
+      <c r="AB31" s="112"/>
       <c r="AC31" s="13"/>
-      <c r="AD31" s="94"/>
-      <c r="AE31" s="94"/>
-      <c r="AF31" s="94"/>
-      <c r="AG31" s="94"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="112"/>
+      <c r="AF31" s="112"/>
+      <c r="AG31" s="112"/>
       <c r="AH31" s="13"/>
-      <c r="AI31" s="94"/>
-      <c r="AJ31" s="94"/>
-      <c r="AK31" s="94"/>
-      <c r="AL31" s="94"/>
-      <c r="AM31" s="95"/>
+      <c r="AI31" s="112"/>
+      <c r="AJ31" s="112"/>
+      <c r="AK31" s="112"/>
+      <c r="AL31" s="112"/>
+      <c r="AM31" s="125"/>
       <c r="AN31" s="20"/>
       <c r="AO31" s="19"/>
       <c r="AP31" s="19"/>
@@ -9118,45 +9118,45 @@
     <row r="34" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
-      <c r="U34" s="83"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="83"/>
-      <c r="Y34" s="83"/>
-      <c r="Z34" s="83"/>
-      <c r="AA34" s="83"/>
-      <c r="AB34" s="83"/>
-      <c r="AC34" s="83"/>
-      <c r="AD34" s="83"/>
-      <c r="AE34" s="83"/>
-      <c r="AF34" s="83"/>
-      <c r="AG34" s="83"/>
-      <c r="AH34" s="83"/>
-      <c r="AI34" s="83"/>
-      <c r="AJ34" s="83"/>
-      <c r="AK34" s="83"/>
-      <c r="AL34" s="83"/>
-      <c r="AM34" s="84"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="120"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
+      <c r="Y34" s="120"/>
+      <c r="Z34" s="120"/>
+      <c r="AA34" s="120"/>
+      <c r="AB34" s="120"/>
+      <c r="AC34" s="120"/>
+      <c r="AD34" s="120"/>
+      <c r="AE34" s="120"/>
+      <c r="AF34" s="120"/>
+      <c r="AG34" s="120"/>
+      <c r="AH34" s="120"/>
+      <c r="AI34" s="120"/>
+      <c r="AJ34" s="120"/>
+      <c r="AK34" s="120"/>
+      <c r="AL34" s="120"/>
+      <c r="AM34" s="121"/>
       <c r="AN34" s="20"/>
       <c r="AO34" s="19"/>
       <c r="AP34" s="19"/>
@@ -9164,43 +9164,43 @@
     <row r="35" spans="1:42" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="86"/>
-      <c r="V35" s="86"/>
-      <c r="W35" s="86"/>
-      <c r="X35" s="86"/>
-      <c r="Y35" s="86"/>
-      <c r="Z35" s="86"/>
-      <c r="AA35" s="86"/>
-      <c r="AB35" s="86"/>
-      <c r="AC35" s="86"/>
-      <c r="AD35" s="86"/>
-      <c r="AE35" s="86"/>
-      <c r="AF35" s="86"/>
-      <c r="AG35" s="86"/>
-      <c r="AH35" s="86"/>
-      <c r="AI35" s="86"/>
-      <c r="AJ35" s="86"/>
-      <c r="AK35" s="86"/>
-      <c r="AL35" s="86"/>
-      <c r="AM35" s="87"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="109"/>
+      <c r="U35" s="109"/>
+      <c r="V35" s="109"/>
+      <c r="W35" s="109"/>
+      <c r="X35" s="109"/>
+      <c r="Y35" s="109"/>
+      <c r="Z35" s="109"/>
+      <c r="AA35" s="109"/>
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="109"/>
+      <c r="AD35" s="109"/>
+      <c r="AE35" s="109"/>
+      <c r="AF35" s="109"/>
+      <c r="AG35" s="109"/>
+      <c r="AH35" s="109"/>
+      <c r="AI35" s="109"/>
+      <c r="AJ35" s="109"/>
+      <c r="AK35" s="109"/>
+      <c r="AL35" s="109"/>
+      <c r="AM35" s="110"/>
       <c r="AN35" s="25"/>
       <c r="AO35" s="24"/>
       <c r="AP35" s="24"/>
@@ -9208,43 +9208,43 @@
     <row r="36" spans="1:42" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="30"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="116"/>
-      <c r="S36" s="116"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="116"/>
-      <c r="V36" s="116"/>
-      <c r="W36" s="116"/>
-      <c r="X36" s="116"/>
-      <c r="Y36" s="116"/>
-      <c r="Z36" s="116"/>
-      <c r="AA36" s="116"/>
-      <c r="AB36" s="116"/>
-      <c r="AC36" s="116"/>
-      <c r="AD36" s="116"/>
-      <c r="AE36" s="116"/>
-      <c r="AF36" s="116"/>
-      <c r="AG36" s="116"/>
-      <c r="AH36" s="116"/>
-      <c r="AI36" s="116"/>
-      <c r="AJ36" s="116"/>
-      <c r="AK36" s="116"/>
-      <c r="AL36" s="116"/>
-      <c r="AM36" s="117"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="79"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="79"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="79"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="79"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="79"/>
+      <c r="AB36" s="79"/>
+      <c r="AC36" s="79"/>
+      <c r="AD36" s="79"/>
+      <c r="AE36" s="79"/>
+      <c r="AF36" s="79"/>
+      <c r="AG36" s="79"/>
+      <c r="AH36" s="79"/>
+      <c r="AI36" s="79"/>
+      <c r="AJ36" s="79"/>
+      <c r="AK36" s="79"/>
+      <c r="AL36" s="79"/>
+      <c r="AM36" s="80"/>
       <c r="AN36" s="25"/>
       <c r="AO36" s="24"/>
       <c r="AP36" s="24"/>
@@ -9252,43 +9252,43 @@
     <row r="37" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="89"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="89"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="89"/>
-      <c r="V37" s="89"/>
-      <c r="W37" s="89"/>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="89"/>
-      <c r="AA37" s="89"/>
-      <c r="AB37" s="89"/>
-      <c r="AC37" s="89"/>
-      <c r="AD37" s="89"/>
-      <c r="AE37" s="89"/>
-      <c r="AF37" s="89"/>
-      <c r="AG37" s="89"/>
-      <c r="AH37" s="89"/>
-      <c r="AI37" s="89"/>
-      <c r="AJ37" s="89"/>
-      <c r="AK37" s="89"/>
-      <c r="AL37" s="89"/>
-      <c r="AM37" s="90"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="96"/>
+      <c r="S37" s="96"/>
+      <c r="T37" s="96"/>
+      <c r="U37" s="96"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="96"/>
+      <c r="X37" s="96"/>
+      <c r="Y37" s="96"/>
+      <c r="Z37" s="96"/>
+      <c r="AA37" s="96"/>
+      <c r="AB37" s="96"/>
+      <c r="AC37" s="96"/>
+      <c r="AD37" s="96"/>
+      <c r="AE37" s="96"/>
+      <c r="AF37" s="96"/>
+      <c r="AG37" s="96"/>
+      <c r="AH37" s="96"/>
+      <c r="AI37" s="96"/>
+      <c r="AJ37" s="96"/>
+      <c r="AK37" s="96"/>
+      <c r="AL37" s="96"/>
+      <c r="AM37" s="97"/>
       <c r="AN37" s="20"/>
       <c r="AO37" s="19"/>
       <c r="AP37" s="19"/>
@@ -9296,43 +9296,43 @@
     <row r="38" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92"/>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92"/>
-      <c r="S38" s="92"/>
-      <c r="T38" s="92"/>
-      <c r="U38" s="92"/>
-      <c r="V38" s="92"/>
-      <c r="W38" s="92"/>
-      <c r="X38" s="92"/>
-      <c r="Y38" s="92"/>
-      <c r="Z38" s="92"/>
-      <c r="AA38" s="92"/>
-      <c r="AB38" s="92"/>
-      <c r="AC38" s="92"/>
-      <c r="AD38" s="92"/>
-      <c r="AE38" s="92"/>
-      <c r="AF38" s="92"/>
-      <c r="AG38" s="92"/>
-      <c r="AH38" s="92"/>
-      <c r="AI38" s="92"/>
-      <c r="AJ38" s="92"/>
-      <c r="AK38" s="92"/>
-      <c r="AL38" s="92"/>
-      <c r="AM38" s="93"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="98"/>
+      <c r="R38" s="98"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="98"/>
+      <c r="U38" s="98"/>
+      <c r="V38" s="98"/>
+      <c r="W38" s="98"/>
+      <c r="X38" s="98"/>
+      <c r="Y38" s="98"/>
+      <c r="Z38" s="98"/>
+      <c r="AA38" s="98"/>
+      <c r="AB38" s="98"/>
+      <c r="AC38" s="98"/>
+      <c r="AD38" s="98"/>
+      <c r="AE38" s="98"/>
+      <c r="AF38" s="98"/>
+      <c r="AG38" s="98"/>
+      <c r="AH38" s="98"/>
+      <c r="AI38" s="98"/>
+      <c r="AJ38" s="98"/>
+      <c r="AK38" s="98"/>
+      <c r="AL38" s="98"/>
+      <c r="AM38" s="99"/>
       <c r="AN38" s="20"/>
       <c r="AO38" s="19"/>
       <c r="AP38" s="19"/>
@@ -9470,6 +9470,137 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="155">
+    <mergeCell ref="C3:AM3"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="P6:Z6"/>
+    <mergeCell ref="AC6:AM6"/>
+    <mergeCell ref="C34:AM34"/>
+    <mergeCell ref="C35:AM35"/>
+    <mergeCell ref="C37:AM37"/>
+    <mergeCell ref="C38:AM38"/>
+    <mergeCell ref="AI31:AM31"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AI17:AM17"/>
+    <mergeCell ref="AI18:AM18"/>
+    <mergeCell ref="AI19:AM19"/>
+    <mergeCell ref="AI20:AM20"/>
+    <mergeCell ref="AI21:AM21"/>
+    <mergeCell ref="AI22:AM22"/>
+    <mergeCell ref="AI23:AM23"/>
+    <mergeCell ref="AI24:AM24"/>
+    <mergeCell ref="AI25:AM25"/>
+    <mergeCell ref="AI26:AM26"/>
+    <mergeCell ref="AI27:AM27"/>
+    <mergeCell ref="AI28:AM28"/>
+    <mergeCell ref="AI29:AM29"/>
+    <mergeCell ref="AI30:AM30"/>
+    <mergeCell ref="Y29:AB29"/>
+    <mergeCell ref="Y30:AB30"/>
+    <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="Q7:Z7"/>
+    <mergeCell ref="Q8:Z8"/>
+    <mergeCell ref="Q9:Z9"/>
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="AC7:AM7"/>
+    <mergeCell ref="AC8:AM8"/>
+    <mergeCell ref="AC9:AM9"/>
+    <mergeCell ref="AC10:AM10"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
     <mergeCell ref="C36:AM36"/>
     <mergeCell ref="AH15:AI16"/>
     <mergeCell ref="C7:M7"/>
@@ -9494,137 +9625,6 @@
     <mergeCell ref="AJ15:AL15"/>
     <mergeCell ref="AJ16:AL16"/>
     <mergeCell ref="D17:H17"/>
-    <mergeCell ref="AC7:AM7"/>
-    <mergeCell ref="AC8:AM8"/>
-    <mergeCell ref="AC9:AM9"/>
-    <mergeCell ref="AC10:AM10"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="Q7:Z7"/>
-    <mergeCell ref="Q8:Z8"/>
-    <mergeCell ref="Q9:Z9"/>
-    <mergeCell ref="Q10:Z10"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="AI30:AM30"/>
-    <mergeCell ref="Y29:AB29"/>
-    <mergeCell ref="Y30:AB30"/>
-    <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="C3:AM3"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="P6:Z6"/>
-    <mergeCell ref="AC6:AM6"/>
-    <mergeCell ref="C34:AM34"/>
-    <mergeCell ref="C35:AM35"/>
-    <mergeCell ref="C37:AM37"/>
-    <mergeCell ref="C38:AM38"/>
-    <mergeCell ref="AI31:AM31"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="AI17:AM17"/>
-    <mergeCell ref="AI18:AM18"/>
-    <mergeCell ref="AI19:AM19"/>
-    <mergeCell ref="AI20:AM20"/>
-    <mergeCell ref="AI21:AM21"/>
-    <mergeCell ref="AI22:AM22"/>
-    <mergeCell ref="AI23:AM23"/>
-    <mergeCell ref="AI24:AM24"/>
-    <mergeCell ref="AI25:AM25"/>
-    <mergeCell ref="AI26:AM26"/>
-    <mergeCell ref="AI27:AM27"/>
-    <mergeCell ref="AI28:AM28"/>
-    <mergeCell ref="AI29:AM29"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C12 C15 E15:E16 O13:AM13 C1:AM1 C17:D31 J17:J31 C35:C38 C43:AM1048576 C4:AM5 O6:O12 AA6:AB12">
     <cfRule type="cellIs" dxfId="92" priority="99" operator="equal">
@@ -10009,7 +10009,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10175,9 +10175,15 @@
       <c r="G4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="H4" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="K4"/>
     </row>
     <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -10202,9 +10208,15 @@
       <c r="G5" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="H5" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="K5"/>
     </row>
     <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -10229,9 +10241,15 @@
       <c r="G6" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+      <c r="H6" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="K6"/>
     </row>
     <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -10256,9 +10274,15 @@
       <c r="G7" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -10283,9 +10307,15 @@
       <c r="G8" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
+      <c r="H8" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="K8"/>
     </row>
     <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -10310,9 +10340,15 @@
       <c r="G9" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
+      <c r="H9" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="K9"/>
     </row>
     <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -10337,9 +10373,15 @@
       <c r="G10" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
+      <c r="H10" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="K10"/>
     </row>
     <row r="11" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -10379,9 +10421,15 @@
       <c r="G12" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
+      <c r="H12" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="K12"/>
     </row>
     <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -10406,9 +10454,15 @@
       <c r="G13" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
+      <c r="H13" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="K13"/>
     </row>
     <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -10433,9 +10487,15 @@
       <c r="G14" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
+      <c r="H14" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="K14"/>
     </row>
     <row r="15" spans="1:20" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10475,9 +10535,15 @@
       <c r="G16" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
+      <c r="H16" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -10502,9 +10568,15 @@
       <c r="G17" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
+      <c r="H17" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="K17"/>
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -10529,9 +10601,15 @@
       <c r="G18" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
+      <c r="H18" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="K18"/>
     </row>
     <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -10556,9 +10634,15 @@
       <c r="G19" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
+      <c r="H19" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="K19"/>
     </row>
     <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -10583,9 +10667,15 @@
       <c r="G20" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
+      <c r="H20" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="K20"/>
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -10610,9 +10700,15 @@
       <c r="G21" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
+      <c r="H21" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="K21"/>
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -10637,9 +10733,15 @@
       <c r="G22" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
+      <c r="H22" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="K22"/>
     </row>
     <row r="23" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
@@ -10666,52 +10768,52 @@
       </c>
       <c r="H23" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I23" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J23" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K23"/>
     </row>
     <row r="24" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="127">
+      <c r="A24" s="77">
         <f>SUM(Table1[[#Totals],[Mon - Apr 19th]:[Sun - Apr 25th]])/7</f>
-        <v>0.42857142857142849</v>
+        <v>0.73109243697478987</v>
       </c>
       <c r="B24" s="62"/>
       <c r="C24" s="61"/>
       <c r="D24" s="64">
-        <f>SUM(D23)/17</f>
+        <f t="shared" ref="D24:J24" si="1">SUM(D23)/17</f>
         <v>0.70588235294117652</v>
       </c>
       <c r="E24" s="64">
-        <f>SUM(E23)/17</f>
+        <f t="shared" si="1"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="F24" s="64">
-        <f>SUM(F23)/17</f>
+        <f t="shared" si="1"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="G24" s="64">
-        <f>SUM(G23)/17</f>
+        <f t="shared" si="1"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="H24" s="64">
-        <f>SUM(H23)/17</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.82352941176470584</v>
       </c>
       <c r="I24" s="64">
-        <f>SUM(I23)/17</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="J24" s="64">
-        <f>SUM(J23)/17</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="K24"/>
     </row>
@@ -10728,7 +10830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 A1 A37:A1048576" xr:uid="{1713A267-0C0A-438A-9CE7-A2F77CB3F8D6}">
       <formula1>"Sleep, Excel, Tableau"</formula1>
     </dataValidation>
@@ -10751,15 +10853,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="46e0ad8bcb937777a496f4378509b82b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3afd91b9dddacb5807afd727ccca0e2e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -10980,6 +11073,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10990,14 +11092,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C3BEF7D-0560-4D92-8503-510D68BBABDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11016,6 +11110,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61C0559-A3A8-404B-B3C9-59977EEF143B}">
   <ds:schemaRefs>
